--- a/Data/EC/NIT-9009816541.xlsx
+++ b/Data/EC/NIT-9009816541.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2180ED50-FB7E-437F-9240-102887DCD006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BB171A-19B5-4BC8-9E40-3713E06CB043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{577D4D5A-8E9B-4415-BC86-405471C351F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9CE69892-04F4-47F8-95BD-1DB3EF81C2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,55 +74,64 @@
     <t>2209</t>
   </si>
   <si>
+    <t>73200363</t>
+  </si>
+  <si>
+    <t>WILLIAMS JOSE GUEVARA GOMEZ</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>1048434925</t>
   </si>
   <si>
     <t>AURY LUZ GAVIRIA PUERTA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -166,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DD6B86-E179-D93D-F324-6DDE8F846D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554C6B25-6331-AA88-269F-DA1E8C685BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,32 +896,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753B715E-9AB5-4341-9DD1-0B94FAA1F7CE}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7F6D7-5E6C-46A1-A7CB-5FDDE77519B8}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -921,7 +930,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -932,7 +941,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -943,7 +952,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -954,10 +963,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -970,8 +979,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -986,15 +995,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>813479</v>
+        <v>930999</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,27 +1011,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1083,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1088,27 +1097,27 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>27733</v>
+        <v>65520</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1638000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1120,18 +1129,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1143,18 +1152,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1166,18 +1175,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1189,18 +1198,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1212,18 +1221,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1235,18 +1244,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1258,18 +1267,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1281,18 +1290,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1304,18 +1313,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1327,18 +1336,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1350,18 +1359,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1373,18 +1382,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1396,57 +1405,103 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="24">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="18">
         <v>52000</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>1300000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="24">
+        <v>27733</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009816541.xlsx
+++ b/Data/EC/NIT-9009816541.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BB171A-19B5-4BC8-9E40-3713E06CB043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4804D039-5603-4ACA-B1C3-5CF0C3434054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9CE69892-04F4-47F8-95BD-1DB3EF81C2E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18BC83B1-9C14-4B2E-AB1E-C736A3140E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,64 +74,61 @@
     <t>2209</t>
   </si>
   <si>
-    <t>73200363</t>
-  </si>
-  <si>
-    <t>WILLIAMS JOSE GUEVARA GOMEZ</t>
+    <t>1048434925</t>
+  </si>
+  <si>
+    <t>AURY LUZ GAVIRIA PUERTA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
   </si>
   <si>
     <t>2501</t>
   </si>
   <si>
-    <t>1048434925</t>
-  </si>
-  <si>
-    <t>AURY LUZ GAVIRIA PUERTA</t>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -175,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,13 +527,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -545,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554C6B25-6331-AA88-269F-DA1E8C685BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934A6A6F-E74A-F73B-B688-66337C22FCBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -896,32 +893,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7F6D7-5E6C-46A1-A7CB-5FDDE77519B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228F9DD-2FDB-4AA2-B54D-8BC1D6143940}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +927,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -941,7 +938,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -952,7 +949,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -963,10 +960,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -979,8 +976,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -995,15 +992,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>930999</v>
+        <v>917479</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,27 +1008,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1051,16 +1048,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1080,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1097,27 +1094,27 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>65520</v>
+        <v>27733</v>
       </c>
       <c r="G17" s="18">
-        <v>1638000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1129,18 +1126,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1152,18 +1149,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1175,18 +1172,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1198,18 +1195,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1221,18 +1218,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1244,18 +1241,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1267,18 +1264,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1290,18 +1287,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1313,18 +1310,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1336,18 +1333,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1359,18 +1356,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1382,18 +1379,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1405,18 +1402,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1428,18 +1425,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1451,21 +1448,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="24">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="24">
         <v>1300000</v>
@@ -1474,24 +1471,24 @@
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
